--- a/similarities/split_global/harmonic_similarity_timestamps_96.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_96.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_38</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:hdim7/G#', 'A#:7', 'D#:min']]</t>
+          <t>['F#:min', 'B:min/F#', 'F#:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>['C:min', 'F:min/5', 'C:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:23.840000', '0:00:31.400000')]</t>
+          <t>('0:00:00.560000', '0:00:04.260000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:12.260000', '0:00:17.900000')]</t>
+          <t>('0:00:17.357000', '0:00:22.981000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=23.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=0.56</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=12.26']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=17.357</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>isophonics_182</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G', 'C/5', 'G', 'C/5', 'G']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:19.140000', '0:00:22.240000')]</t>
+          <t>('0:01:58.400000', '0:02:02.360000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:59.500000', '0:01:08.120000')]</t>
+          <t>('0:00:59.182426', '0:01:08.064058')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=59.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-182#t=59.182426</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
+          <t>isophonics_135</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E'], ['F#', 'B', 'E']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj'], ['F:maj/A', 'A#:maj/D', 'D#:maj']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:30.654941', '0:00:38.514896'), ('0:00:38.514896', '0:00:45.713082')]</t>
+          <t>('0:00:00.866546', '0:00:12.917702')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:19.180000'), ('0:03:08.260000', '0:03:12.260000')]</t>
+          <t>('0:00:16.040000', '0:00:22.400000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=30.654941', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=38.514896']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=0.866546</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=188.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=16.04</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_180</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>isophonics_219</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['D:maj/G', 'G:min', 'D:maj/G']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['A', 'D:min', 'A']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:43.140000', '0:01:00.240000'), ('0:02:04.920000', '0:02:08.840000')]</t>
+          <t>('0:00:08.260000', '0:00:12.060000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:03.240000', '0:01:04.620000'), ('0:01:01.600000', '0:01:03.840000')]</t>
+          <t>('0:01:15.058526', '0:01:45.418616')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=43.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=8.26</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-219#t=75.058526</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2EqlS6tkEnglzr7tkKAAYD</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>isophonics_52</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>schubert-winterreise_207</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb'], ['Bb', 'F:7', 'Bb']]</t>
+          <t>['G:7', 'C', 'G']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['F:7', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:00.460000', '0:00:05.060000'), ('0:00:12.510000', '0:00:13.910000')]</t>
+          <t>('0:01:00.006734', '0:01:08.830317')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:24.040000'), ('0:01:19.980000', '0:01:33.600000')]</t>
+          <t>('0:00:04.820000', '0:00:10.460000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=0.46', 'https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=60.006734</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=4.82</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>jaah_43</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A:maj6']]</t>
+          <t>['C:7', 'F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C']]</t>
+          <t>['Bb:7', 'Eb', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:04.511043', '0:00:10.664331')]</t>
+          <t>('0:01:20.800000', '0:01:37.580000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:03.180000', '0:01:06.100000')]</t>
+          <t>('0:00:05.440000', '0:00:14.410000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-242#t=4.511043']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=80.8</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=63.18']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=5.44</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>isophonics_235</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['Bb', 'F', 'Bb']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:28.921995', '0:00:33.101587')]</t>
+          <t>('0:00:04.605000', '0:00:13.840000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:54.180000', '0:01:01.460000')]</t>
+          <t>('0:00:26.041712', '0:00:37.106020')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=28.921995']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=4.605</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=26.041712</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
+          <t>isophonics_235</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['F', 'Bb', 'Eb:7']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['G#:maj', 'C#:maj', 'F#:7']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:10.780000', '0:00:16.280000'), ('0:00:00.360000', '0:00:02.440000')]</t>
+          <t>('0:00:27.910918', '0:00:40.797993')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:01.560000', '0:00:06.900000'), ('0:02:20.480000', '0:02:25.980000')]</t>
+          <t>('0:00:13.120000', '0:00:16.600000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=10.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=27.910918</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=1.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=140.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=13.12</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>isophonics_42</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>isophonics_232</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
+          <t>['C:min', 'Bb/3', 'Eb']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['A:min', 'G', 'C']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:29.500000', '0:00:31.640000')]</t>
+          <t>('0:00:00.290000', '0:00:03.065000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:37.840000', '0:00:42.820000')]</t>
+          <t>('0:00:12.510317', '0:00:18.071496')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=29.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-42#t=0.29</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=37.84']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-232#t=12.510317</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>schubert-winterreise_106</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:47.760000', '0:00:59.620000')]</t>
+          <t>('0:00:02.600000', '0:00:04.500000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:00.800000', '0:00:03.520000')]</t>
+          <t>('0:00:39.840000', '0:00:47.280000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=47.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=2.6</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=0.8']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=39.84</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>jaah_1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj', 'D:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:58.080000', '0:01:09.440000')]</t>
+          <t>('0:00:00.260000', '0:00:07.340000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:15.014000', '0:00:24.195000')]</t>
+          <t>('0:00:00.720000', '0:00:17.050000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=0.26</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=15.014']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>isophonics_276</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:17.581738', '0:00:30.271443')]</t>
+          <t>('0:00:09.738333', '0:00:15.380782')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:54.180000', '0:01:01.460000')]</t>
+          <t>('0:00:46.560000', '0:00:49.080000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=17.581738']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-276#t=9.738333</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=46.56</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Eb:7', 'Bb', 'Bb:7']]</t>
+          <t>['D#:min/A#', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'F:7', 'C', 'C:7']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:13.900000', '0:00:27.370000')]</t>
+          <t>('0:02:14.220000', '0:02:19.560000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:04.100000', '0:00:10.490000')]</t>
+          <t>('0:00:46.520000', '0:00:48.940000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=13.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=134.22</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=4.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.52</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_71</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>isophonics_19</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
+          <t>['F', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:16.630000', '0:01:27.460000')]</t>
+          <t>('0:00:21.680000', '0:00:32.360000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:41.320000', '0:00:46.640000')]</t>
+          <t>('0:00:38.438956', '0:00:41.945170')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-71#t=76.63']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=21.68</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=41.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-19#t=38.438956</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>schubert-winterreise_183</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:45', '0:01:48.240000')]</t>
+          <t>('0:01:15.520000', '0:01:19.700000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:22.125076', '0:00:36.625937')]</t>
+          <t>('0:02:08.540000', '0:02:12.840000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
